--- a/工作代码/每日报表/发送表/宝昌市场营销日报2018.12.12.xlsx
+++ b/工作代码/每日报表/发送表/宝昌市场营销日报2018.12.12.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\PYthon_Study\工作代码\每日报表\发送表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\Documents\00code\PYthon_Study\工作代码\每日报表\发送表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ADBAAF-214B-47E5-849C-2637A5C9595F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8C0B02-5519-40B2-B546-527530C13891}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12768" windowWidth="21000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="12765" windowWidth="21000" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>大唐广东分公司市场营销日报</t>
   </si>
@@ -124,6 +124,18 @@
   </si>
   <si>
     <t xml:space="preserve">供电局数据没有更新，对标数据为12月07日数据 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>停机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.17</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -433,7 +445,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -491,6 +503,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -506,9 +536,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -552,18 +579,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -844,34 +859,34 @@
   <dimension ref="A5:XFB35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E18"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="1" customWidth="1"/>
     <col min="4" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.25" style="1" customWidth="1"/>
     <col min="10" max="16381" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13 16382:16382" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+    <row r="5" spans="1:13 16382:16382" x14ac:dyDescent="0.15">
+      <c r="B5" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:13 16382:16382" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+    </row>
+    <row r="6" spans="1:13 16382:16382" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
@@ -891,8 +906,8 @@
       </c>
       <c r="XFB6" s="1"/>
     </row>
-    <row r="7" spans="1:13 16382:16382" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
+    <row r="7" spans="1:13 16382:16382" x14ac:dyDescent="0.15">
+      <c r="B7" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -900,40 +915,40 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="4">
-        <v>405.53469999999658</v>
+        <v>302.76589999999987</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:13 16382:16382" x14ac:dyDescent="0.25">
-      <c r="B8" s="24"/>
+    <row r="8" spans="1:13 16382:16382" x14ac:dyDescent="0.15">
+      <c r="B8" s="23"/>
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="4">
-        <v>4738.7475999999961</v>
+        <v>5331.9835999999959</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:13 16382:16382" x14ac:dyDescent="0.25">
-      <c r="B9" s="24"/>
+    <row r="9" spans="1:13 16382:16382" x14ac:dyDescent="0.15">
+      <c r="B9" s="23"/>
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="4">
-        <v>130387.3037</v>
+        <v>130980.53969999999</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:13 16382:16382" x14ac:dyDescent="0.25">
-      <c r="B10" s="24" t="s">
+    <row r="10" spans="1:13 16382:16382" x14ac:dyDescent="0.15">
+      <c r="B10" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -941,43 +956,43 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="4">
-        <v>11.05601690294429</v>
+        <v>8.2542502726281342</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="5"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:13 16382:16382" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
+    <row r="11" spans="1:13 16382:16382" x14ac:dyDescent="0.15">
+      <c r="B11" s="23"/>
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="4">
-        <v>129.19159214830961</v>
+        <v>145.36487459105771</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="5"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:13 16382:16382" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
+    <row r="12" spans="1:13 16382:16382" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="23"/>
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="4">
-        <v>3554.724746455835</v>
+        <v>3570.8980288985831</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="5"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:13 16382:16382" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+    <row r="13" spans="1:13 16382:16382" x14ac:dyDescent="0.15">
+      <c r="A13" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -996,9 +1011,9 @@
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
     </row>
-    <row r="14" spans="1:13 16382:16382" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="43"/>
+    <row r="14" spans="1:13 16382:16382" x14ac:dyDescent="0.15">
+      <c r="A14" s="21"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1010,9 +1025,9 @@
       <c r="G14" s="3"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:13 16382:16382" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="43"/>
+    <row r="15" spans="1:13 16382:16382" x14ac:dyDescent="0.15">
+      <c r="A15" s="21"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
@@ -1024,9 +1039,9 @@
       <c r="G15" s="3"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:13 16382:16382" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="43" t="s">
+    <row r="16" spans="1:13 16382:16382" x14ac:dyDescent="0.15">
+      <c r="A16" s="21"/>
+      <c r="B16" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1037,12 +1052,12 @@
         <v>1</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="35"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="43"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="21"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1051,12 +1066,12 @@
         <v>1</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="37"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="42"/>
-      <c r="B18" s="43"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="42"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="22"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
@@ -1065,80 +1080,80 @@
         <v>1</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="24" t="s">
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="29"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="24"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="23"/>
       <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="30"/>
+      <c r="E20" s="35"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="24"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="23"/>
       <c r="C21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="30"/>
+      <c r="E21" s="35"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="24" t="s">
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="30"/>
+      <c r="E22" s="35"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="37"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="24"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="42"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="23"/>
       <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="30"/>
+      <c r="E23" s="35"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="37"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="24"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="42"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="23"/>
       <c r="C24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="31"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="37"/>
-    </row>
-    <row r="25" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="G24" s="41"/>
+      <c r="H24" s="42"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
@@ -1149,12 +1164,12 @@
       <c r="E25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
-    </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="25" t="s">
+      <c r="F25" s="37"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
+    </row>
+    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="12" t="s">
@@ -1162,56 +1177,56 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="13">
-        <v>86.6</v>
-      </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="37"/>
-    </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="24"/>
+        <v>63.720000000001107</v>
+      </c>
+      <c r="F26" s="37"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+    </row>
+    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="23"/>
       <c r="C27" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
-    </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" ht="42.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="20" t="s">
+      <c r="F27" s="38"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+    </row>
+    <row r="28" spans="1:9" s="1" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-    </row>
-    <row r="29" spans="1:9" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="26" t="s">
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+    </row>
+    <row r="29" spans="1:9" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="22" t="s">
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I29" s="22"/>
-    </row>
-    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
+      <c r="I29" s="28"/>
+    </row>
+    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="14" t="s">
         <v>23</v>
       </c>
@@ -1231,8 +1246,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="27"/>
+    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="32"/>
       <c r="C31" s="14" t="s">
         <v>27</v>
       </c>
@@ -1241,10 +1256,12 @@
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-    </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="27"/>
+      <c r="I31" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="32"/>
       <c r="C32" s="14" t="s">
         <v>28</v>
       </c>
@@ -1253,10 +1270,12 @@
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-    </row>
-    <row r="33" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="27"/>
+      <c r="I32" s="19">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="32"/>
       <c r="C33" s="14" t="s">
         <v>29</v>
       </c>
@@ -1265,10 +1284,12 @@
       <c r="F33" s="14"/>
       <c r="G33" s="15"/>
       <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-    </row>
-    <row r="34" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="28"/>
+      <c r="I33" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="33"/>
       <c r="C34" s="14" t="s">
         <v>30</v>
       </c>
@@ -1277,21 +1298,18 @@
       <c r="F34" s="14"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
+      <c r="I34" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B18"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="B28:I28"/>
     <mergeCell ref="D29:G29"/>
@@ -1305,6 +1323,11 @@
     <mergeCell ref="E19:E24"/>
     <mergeCell ref="F25:F27"/>
     <mergeCell ref="G16:H27"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
